--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1_bak.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1_bak.xlsx
@@ -17373,8 +17373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1478" workbookViewId="0">
-      <selection activeCell="G1494" sqref="G1494"/>
+    <sheetView tabSelected="1" topLeftCell="B171" workbookViewId="0">
+      <selection activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
